--- a/REGULAR/CEO/OLEGARIO, LEONARD ERIC.xlsx
+++ b/REGULAR/CEO/OLEGARIO, LEONARD ERIC.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="98">
   <si>
     <t>PERIOD</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>FL(1-0-0)</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1193,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1233,7 +1236,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1297,7 +1300,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1360,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1423,7 +1426,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,7 +1489,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1584,7 +1587,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1643,7 +1646,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1708,7 +1711,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1751,7 +1754,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1826,7 +1829,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2012,7 +2015,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2078,7 +2081,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2136,7 +2139,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2202,7 +2205,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2258,7 +2261,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2333,7 +2336,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2376,7 +2379,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2442,7 +2445,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2498,7 +2501,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2596,7 +2599,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2659,7 +2662,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3108,7 +3111,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A148" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K159" sqref="K159"/>
+      <selection pane="bottomLeft" activeCell="F161" sqref="F161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3271,7 +3274,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>83.781999999999996</v>
+        <v>86.281999999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3281,7 +3284,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>120.75</v>
+        <v>122.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6509,15 +6512,17 @@
       <c r="B159" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C159" s="13"/>
+      <c r="C159" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D159" s="39">
         <v>1</v>
       </c>
       <c r="E159" s="9"/>
       <c r="F159" s="20"/>
-      <c r="G159" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G159" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H159" s="39"/>
       <c r="I159" s="9"/>
@@ -6530,19 +6535,27 @@
       <c r="A160" s="40">
         <v>45261</v>
       </c>
-      <c r="B160" s="20"/>
-      <c r="C160" s="13"/>
+      <c r="B160" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C160" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D160" s="39"/>
       <c r="E160" s="9"/>
       <c r="F160" s="20"/>
-      <c r="G160" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H160" s="39"/>
+      <c r="G160" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H160" s="39">
+        <v>1</v>
+      </c>
       <c r="I160" s="9"/>
       <c r="J160" s="11"/>
-      <c r="K160" s="20"/>
+      <c r="K160" s="49">
+        <v>45281</v>
+      </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">

--- a/REGULAR/CEO/OLEGARIO, LEONARD ERIC.xlsx
+++ b/REGULAR/CEO/OLEGARIO, LEONARD ERIC.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="99">
   <si>
     <t>PERIOD</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1196,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1236,7 +1239,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1300,7 +1303,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1360,7 +1363,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1426,7 +1429,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1489,7 +1492,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1587,7 +1590,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1646,7 +1649,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1711,7 +1714,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1754,7 +1757,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1829,7 +1832,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2015,7 +2018,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2081,7 +2084,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2139,7 +2142,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2205,7 +2208,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2261,7 +2264,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2336,7 +2339,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2379,7 +2382,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2445,7 +2448,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2501,7 +2504,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2599,7 +2602,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2662,7 +2665,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2728,7 +2731,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K227" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K228" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3106,12 +3109,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K227"/>
+  <dimension ref="A2:K228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A148" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="F161" sqref="F161"/>
+      <selection pane="bottomLeft" activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6558,8 +6561,8 @@
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="40">
-        <v>45292</v>
+      <c r="A161" s="47" t="s">
+        <v>98</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -6573,13 +6576,15 @@
       <c r="H161" s="39"/>
       <c r="I161" s="9"/>
       <c r="J161" s="11"/>
-      <c r="K161" s="20"/>
+      <c r="K161" s="49"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B162" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B162" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C162" s="13"/>
       <c r="D162" s="39"/>
       <c r="E162" s="9"/>
@@ -6591,11 +6596,13 @@
       <c r="H162" s="39"/>
       <c r="I162" s="9"/>
       <c r="J162" s="11"/>
-      <c r="K162" s="20"/>
+      <c r="K162" s="49">
+        <v>45310</v>
+      </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -6613,7 +6620,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -6631,7 +6638,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -6649,7 +6656,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -6667,7 +6674,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -6685,7 +6692,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -6703,7 +6710,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -6721,7 +6728,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -6739,7 +6746,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -6757,7 +6764,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -6775,7 +6782,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -6793,7 +6800,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -6811,7 +6818,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -6829,7 +6836,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -6847,7 +6854,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -6865,7 +6872,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -6883,7 +6890,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -6901,7 +6908,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -6919,7 +6926,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -6937,7 +6944,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -6955,7 +6962,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -6973,7 +6980,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -6991,7 +6998,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -7009,7 +7016,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -7027,7 +7034,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -7045,7 +7052,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -7063,7 +7070,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -7081,7 +7088,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -7099,7 +7106,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -7117,7 +7124,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -7135,7 +7142,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -7153,7 +7160,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -7171,7 +7178,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -7189,7 +7196,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -7207,7 +7214,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -7225,7 +7232,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -7243,7 +7250,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -7261,7 +7268,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -7279,7 +7286,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -7297,7 +7304,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -7315,7 +7322,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -7333,7 +7340,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -7351,7 +7358,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -7369,7 +7376,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -7387,7 +7394,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -7405,7 +7412,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -7423,7 +7430,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -7441,7 +7448,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -7459,7 +7466,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -7477,7 +7484,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -7495,7 +7502,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -7513,7 +7520,7 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -7531,7 +7538,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -7549,7 +7556,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -7567,7 +7574,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -7585,7 +7592,7 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -7603,7 +7610,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -7621,7 +7628,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -7639,7 +7646,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -7657,7 +7664,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -7675,7 +7682,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -7693,7 +7700,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -7711,7 +7718,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -7729,7 +7736,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -7747,7 +7754,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -7762,6 +7769,24 @@
       <c r="I227" s="9"/>
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" s="40">
+        <v>47300</v>
+      </c>
+      <c r="B228" s="20"/>
+      <c r="C228" s="13"/>
+      <c r="D228" s="39"/>
+      <c r="E228" s="9"/>
+      <c r="F228" s="20"/>
+      <c r="G228" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H228" s="39"/>
+      <c r="I228" s="9"/>
+      <c r="J228" s="11"/>
+      <c r="K228" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/CEO/OLEGARIO, LEONARD ERIC.xlsx
+++ b/REGULAR/CEO/OLEGARIO, LEONARD ERIC.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="101">
   <si>
     <t>PERIOD</t>
   </si>
@@ -331,6 +331,12 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-0-3)</t>
+  </si>
+  <si>
+    <t>UT(1-0-5)</t>
   </si>
 </sst>
 </file>
@@ -2731,7 +2737,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K228" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K229" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3109,12 +3115,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K228"/>
+  <dimension ref="A2:K229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A148" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D160" sqref="D160"/>
+      <selection pane="bottomLeft" activeCell="F167" sqref="F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3277,7 +3283,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>86.281999999999996</v>
+        <v>85.265999999999991</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6492,11 +6498,15 @@
       <c r="A158" s="40">
         <v>45200</v>
       </c>
-      <c r="B158" s="15"/>
+      <c r="B158" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="C158" s="13">
         <v>1.25</v>
       </c>
-      <c r="D158" s="42"/>
+      <c r="D158" s="42">
+        <v>1.01</v>
+      </c>
       <c r="E158" s="9"/>
       <c r="F158" s="15"/>
       <c r="G158" s="41">
@@ -6535,56 +6545,56 @@
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C160" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D160" s="39"/>
+        <v>99</v>
+      </c>
+      <c r="C160" s="13"/>
+      <c r="D160" s="39">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E160" s="9"/>
       <c r="F160" s="20"/>
-      <c r="G160" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H160" s="39">
-        <v>1</v>
-      </c>
+      <c r="G160" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H160" s="39"/>
       <c r="I160" s="9"/>
       <c r="J160" s="11"/>
-      <c r="K160" s="49">
-        <v>45281</v>
-      </c>
+      <c r="K160" s="49"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="B161" s="20"/>
-      <c r="C161" s="13"/>
+      <c r="A161" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B161" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C161" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D161" s="39"/>
       <c r="E161" s="9"/>
       <c r="F161" s="20"/>
-      <c r="G161" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H161" s="39"/>
+      <c r="G161" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H161" s="39">
+        <v>1</v>
+      </c>
       <c r="I161" s="9"/>
       <c r="J161" s="11"/>
-      <c r="K161" s="49"/>
+      <c r="K161" s="49">
+        <v>45281</v>
+      </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B162" s="20" t="s">
-        <v>87</v>
-      </c>
+      <c r="A162" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B162" s="20"/>
       <c r="C162" s="13"/>
       <c r="D162" s="39"/>
       <c r="E162" s="9"/>
@@ -6596,15 +6606,15 @@
       <c r="H162" s="39"/>
       <c r="I162" s="9"/>
       <c r="J162" s="11"/>
-      <c r="K162" s="49">
-        <v>45310</v>
-      </c>
+      <c r="K162" s="49"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B163" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B163" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C163" s="13"/>
       <c r="D163" s="39"/>
       <c r="E163" s="9"/>
@@ -6616,11 +6626,13 @@
       <c r="H163" s="39"/>
       <c r="I163" s="9"/>
       <c r="J163" s="11"/>
-      <c r="K163" s="20"/>
+      <c r="K163" s="49">
+        <v>45310</v>
+      </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -6638,7 +6650,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -6656,7 +6668,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -6674,7 +6686,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -6692,7 +6704,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -6710,7 +6722,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -6728,7 +6740,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -6746,7 +6758,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -6764,7 +6776,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -6782,7 +6794,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -6800,7 +6812,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -6818,7 +6830,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -6836,7 +6848,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -6854,7 +6866,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -6872,7 +6884,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -6890,7 +6902,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -6908,7 +6920,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -6926,7 +6938,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -6944,7 +6956,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -6962,7 +6974,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -6980,7 +6992,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -6998,7 +7010,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -7016,7 +7028,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -7034,7 +7046,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -7052,7 +7064,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -7070,7 +7082,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -7088,7 +7100,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -7106,7 +7118,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -7124,7 +7136,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -7142,7 +7154,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -7160,7 +7172,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -7178,7 +7190,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -7196,7 +7208,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -7214,7 +7226,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -7232,7 +7244,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -7250,7 +7262,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -7268,7 +7280,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -7286,7 +7298,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -7304,7 +7316,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -7322,7 +7334,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -7340,7 +7352,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -7358,7 +7370,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -7376,7 +7388,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -7394,7 +7406,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -7412,7 +7424,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -7430,7 +7442,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -7448,7 +7460,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -7466,7 +7478,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -7484,7 +7496,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -7502,7 +7514,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -7520,7 +7532,7 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -7538,7 +7550,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -7556,7 +7568,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -7574,7 +7586,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -7592,7 +7604,7 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -7610,7 +7622,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -7628,7 +7640,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -7646,7 +7658,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -7664,7 +7676,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -7682,7 +7694,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -7700,7 +7712,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -7718,7 +7730,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -7736,7 +7748,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -7754,7 +7766,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -7772,7 +7784,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -7787,6 +7799,24 @@
       <c r="I228" s="9"/>
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" s="40">
+        <v>47300</v>
+      </c>
+      <c r="B229" s="20"/>
+      <c r="C229" s="13"/>
+      <c r="D229" s="39"/>
+      <c r="E229" s="9"/>
+      <c r="F229" s="20"/>
+      <c r="G229" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H229" s="39"/>
+      <c r="I229" s="9"/>
+      <c r="J229" s="11"/>
+      <c r="K229" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7897,17 +7927,17 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/REGULAR/CEO/OLEGARIO, LEONARD ERIC.xlsx
+++ b/REGULAR/CEO/OLEGARIO, LEONARD ERIC.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="107">
   <si>
     <t>PERIOD</t>
   </si>
@@ -337,6 +337,24 @@
   </si>
   <si>
     <t>UT(1-0-5)</t>
+  </si>
+  <si>
+    <t>UT(0-0-6)</t>
+  </si>
+  <si>
+    <t>A(5-0-0)</t>
+  </si>
+  <si>
+    <t>2/20-23,27/2023</t>
+  </si>
+  <si>
+    <t>A(2-0-0)</t>
+  </si>
+  <si>
+    <t>1/3,10/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-48)</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1220,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1245,7 +1263,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1309,7 +1327,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1387,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1435,7 +1453,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1498,7 +1516,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1596,7 +1614,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1655,7 +1673,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1720,7 +1738,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1763,7 +1781,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1838,7 +1856,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2024,7 +2042,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2090,7 +2108,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2148,7 +2166,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2214,7 +2232,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2270,7 +2288,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2345,7 +2363,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2388,7 +2406,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,7 +2472,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2510,7 +2528,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2608,7 +2626,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2671,7 +2689,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2737,7 +2755,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K229" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K230" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3115,12 +3133,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K229"/>
+  <dimension ref="A2:K230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A148" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A142" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="F167" sqref="F167"/>
+      <selection pane="bottomLeft" activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3283,7 +3301,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>85.265999999999991</v>
+        <v>78.153999999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6300,11 +6318,15 @@
       <c r="A149" s="40">
         <v>44927</v>
       </c>
-      <c r="B149" s="20"/>
+      <c r="B149" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="C149" s="13">
         <v>1.25</v>
       </c>
-      <c r="D149" s="39"/>
+      <c r="D149" s="39">
+        <v>2</v>
+      </c>
       <c r="E149" s="9"/>
       <c r="F149" s="20"/>
       <c r="G149" s="13">
@@ -6314,22 +6336,24 @@
       <c r="H149" s="39"/>
       <c r="I149" s="9"/>
       <c r="J149" s="11"/>
-      <c r="K149" s="20"/>
+      <c r="K149" s="20" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B150" s="20"/>
-      <c r="C150" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D150" s="39"/>
+      <c r="A150" s="40"/>
+      <c r="B150" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C150" s="13"/>
+      <c r="D150" s="39">
+        <v>0.1</v>
+      </c>
       <c r="E150" s="9"/>
       <c r="F150" s="20"/>
-      <c r="G150" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G150" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H150" s="39"/>
       <c r="I150" s="9"/>
@@ -6338,13 +6362,17 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B151" s="20"/>
+        <v>44958</v>
+      </c>
+      <c r="B151" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="C151" s="13">
         <v>1.25</v>
       </c>
-      <c r="D151" s="39"/>
+      <c r="D151" s="39">
+        <v>5</v>
+      </c>
       <c r="E151" s="9"/>
       <c r="F151" s="20"/>
       <c r="G151" s="13">
@@ -6354,11 +6382,13 @@
       <c r="H151" s="39"/>
       <c r="I151" s="9"/>
       <c r="J151" s="11"/>
-      <c r="K151" s="20"/>
+      <c r="K151" s="20" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13">
@@ -6378,16 +6408,16 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C153" s="13">
         <v>1.25</v>
       </c>
       <c r="D153" s="39">
-        <v>2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E153" s="9"/>
       <c r="F153" s="20"/>
@@ -6398,21 +6428,21 @@
       <c r="H153" s="39"/>
       <c r="I153" s="9"/>
       <c r="J153" s="11"/>
-      <c r="K153" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="K153" s="20"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C154" s="13">
         <v>1.25</v>
       </c>
-      <c r="D154" s="39"/>
+      <c r="D154" s="39">
+        <v>2</v>
+      </c>
       <c r="E154" s="9"/>
       <c r="F154" s="20"/>
       <c r="G154" s="13">
@@ -6422,14 +6452,16 @@
       <c r="H154" s="39"/>
       <c r="I154" s="9"/>
       <c r="J154" s="11"/>
-      <c r="K154" s="20"/>
+      <c r="K154" s="20" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C155" s="13">
         <v>1.25</v>
@@ -6444,23 +6476,19 @@
       <c r="H155" s="39"/>
       <c r="I155" s="9"/>
       <c r="J155" s="11"/>
-      <c r="K155" s="49">
-        <v>45127</v>
-      </c>
+      <c r="K155" s="20"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C156" s="13">
         <v>1.25</v>
       </c>
-      <c r="D156" s="39">
-        <v>1</v>
-      </c>
+      <c r="D156" s="39"/>
       <c r="E156" s="9"/>
       <c r="F156" s="20"/>
       <c r="G156" s="13">
@@ -6471,18 +6499,22 @@
       <c r="I156" s="9"/>
       <c r="J156" s="11"/>
       <c r="K156" s="49">
-        <v>45147</v>
+        <v>45127</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B157" s="20"/>
+        <v>45139</v>
+      </c>
+      <c r="B157" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="C157" s="13">
         <v>1.25</v>
       </c>
-      <c r="D157" s="39"/>
+      <c r="D157" s="39">
+        <v>1</v>
+      </c>
       <c r="E157" s="9"/>
       <c r="F157" s="20"/>
       <c r="G157" s="13">
@@ -6492,129 +6524,131 @@
       <c r="H157" s="39"/>
       <c r="I157" s="9"/>
       <c r="J157" s="11"/>
-      <c r="K157" s="20"/>
+      <c r="K157" s="49">
+        <v>45147</v>
+      </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B158" s="15" t="s">
-        <v>100</v>
-      </c>
+        <v>45170</v>
+      </c>
+      <c r="B158" s="20"/>
       <c r="C158" s="13">
         <v>1.25</v>
       </c>
-      <c r="D158" s="42">
-        <v>1.01</v>
-      </c>
+      <c r="D158" s="39"/>
       <c r="E158" s="9"/>
-      <c r="F158" s="15"/>
-      <c r="G158" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H158" s="42"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H158" s="39"/>
       <c r="I158" s="9"/>
-      <c r="J158" s="12"/>
-      <c r="K158" s="15"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="20"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B159" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C159" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D159" s="42">
+        <v>1.01</v>
+      </c>
+      <c r="E159" s="9"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H159" s="42"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="15"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="40">
         <v>45231</v>
       </c>
-      <c r="B159" s="20" t="s">
+      <c r="B160" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C159" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D159" s="39">
+      <c r="C160" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D160" s="39">
         <v>1</v>
-      </c>
-      <c r="E159" s="9"/>
-      <c r="F159" s="20"/>
-      <c r="G159" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H159" s="39"/>
-      <c r="I159" s="9"/>
-      <c r="J159" s="11"/>
-      <c r="K159" s="49">
-        <v>45253</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="40"/>
-      <c r="B160" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C160" s="13"/>
-      <c r="D160" s="39">
-        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E160" s="9"/>
       <c r="F160" s="20"/>
-      <c r="G160" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G160" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H160" s="39"/>
       <c r="I160" s="9"/>
       <c r="J160" s="11"/>
-      <c r="K160" s="49"/>
+      <c r="K160" s="49">
+        <v>45253</v>
+      </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C161" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D161" s="39"/>
+        <v>99</v>
+      </c>
+      <c r="C161" s="13"/>
+      <c r="D161" s="39">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E161" s="9"/>
       <c r="F161" s="20"/>
-      <c r="G161" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H161" s="39">
-        <v>1</v>
-      </c>
+      <c r="G161" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H161" s="39"/>
       <c r="I161" s="9"/>
       <c r="J161" s="11"/>
-      <c r="K161" s="49">
-        <v>45281</v>
-      </c>
+      <c r="K161" s="49"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="B162" s="20"/>
-      <c r="C162" s="13"/>
+      <c r="A162" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B162" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C162" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D162" s="39"/>
       <c r="E162" s="9"/>
       <c r="F162" s="20"/>
-      <c r="G162" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H162" s="39"/>
+      <c r="G162" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H162" s="39">
+        <v>1</v>
+      </c>
       <c r="I162" s="9"/>
       <c r="J162" s="11"/>
-      <c r="K162" s="49"/>
+      <c r="K162" s="49">
+        <v>45281</v>
+      </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B163" s="20" t="s">
-        <v>87</v>
-      </c>
+      <c r="A163" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B163" s="20"/>
       <c r="C163" s="13"/>
       <c r="D163" s="39"/>
       <c r="E163" s="9"/>
@@ -6626,15 +6660,15 @@
       <c r="H163" s="39"/>
       <c r="I163" s="9"/>
       <c r="J163" s="11"/>
-      <c r="K163" s="49">
-        <v>45310</v>
-      </c>
+      <c r="K163" s="49"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B164" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B164" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C164" s="13"/>
       <c r="D164" s="39"/>
       <c r="E164" s="9"/>
@@ -6646,11 +6680,13 @@
       <c r="H164" s="39"/>
       <c r="I164" s="9"/>
       <c r="J164" s="11"/>
-      <c r="K164" s="20"/>
+      <c r="K164" s="49">
+        <v>45310</v>
+      </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -6668,7 +6704,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -6686,7 +6722,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -6704,7 +6740,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -6722,7 +6758,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -6740,7 +6776,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -6758,7 +6794,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -6776,7 +6812,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -6794,7 +6830,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -6812,7 +6848,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -6830,7 +6866,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -6848,7 +6884,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -6866,7 +6902,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -6884,7 +6920,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -6902,7 +6938,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -6920,7 +6956,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -6938,7 +6974,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -6956,7 +6992,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -6974,7 +7010,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -6992,7 +7028,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -7010,7 +7046,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -7028,7 +7064,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -7046,7 +7082,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -7064,7 +7100,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -7082,7 +7118,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -7100,7 +7136,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -7118,7 +7154,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -7136,7 +7172,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -7154,7 +7190,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -7172,7 +7208,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -7190,7 +7226,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -7208,7 +7244,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -7226,7 +7262,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -7244,7 +7280,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -7262,7 +7298,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -7280,7 +7316,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -7298,7 +7334,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -7316,7 +7352,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -7334,7 +7370,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -7352,7 +7388,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -7370,7 +7406,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -7388,7 +7424,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -7406,7 +7442,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -7424,7 +7460,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -7442,7 +7478,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -7460,7 +7496,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -7478,7 +7514,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -7496,7 +7532,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -7514,7 +7550,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -7532,7 +7568,7 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -7550,7 +7586,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -7568,7 +7604,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -7586,7 +7622,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -7604,7 +7640,7 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -7622,7 +7658,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -7640,7 +7676,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -7658,7 +7694,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -7676,7 +7712,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -7694,7 +7730,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -7712,7 +7748,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -7730,7 +7766,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -7748,7 +7784,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -7766,7 +7802,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -7784,7 +7820,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -7802,7 +7838,7 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -7817,6 +7853,24 @@
       <c r="I229" s="9"/>
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230" s="40">
+        <v>47300</v>
+      </c>
+      <c r="B230" s="20"/>
+      <c r="C230" s="13"/>
+      <c r="D230" s="39"/>
+      <c r="E230" s="9"/>
+      <c r="F230" s="20"/>
+      <c r="G230" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H230" s="39"/>
+      <c r="I230" s="9"/>
+      <c r="J230" s="11"/>
+      <c r="K230" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7926,18 +7980,14 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
+      <c r="D3"/>
+      <c r="E3"/>
       <c r="F3">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
